--- a/Zeitblätter/Berechnung Zeit.xlsx
+++ b/Zeitblätter/Berechnung Zeit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Montag</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>ergibt ca. 160 Stunden pro Person = 640 Stunden Projektzeit</t>
+  </si>
+  <si>
+    <t>90 Stunden von Regine bestätigz</t>
+  </si>
+  <si>
+    <t>100 Stunden laut Projekthandbuch</t>
+  </si>
+  <si>
+    <t>100 Stunden pro kopf geplannt</t>
   </si>
 </sst>
 </file>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,6 +587,21 @@
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zeitblätter/Berechnung Zeit.xlsx
+++ b/Zeitblätter/Berechnung Zeit.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Montag</t>
   </si>
@@ -102,6 +102,24 @@
   </si>
   <si>
     <t>100 Stunden pro kopf geplannt</t>
+  </si>
+  <si>
+    <t>Hallo Ursus!</t>
+  </si>
+  <si>
+    <t>Ja, die Frage kann man schon beantworten, jedenfalls abschätzen. Im Vollzeitbereich rechnen wir mit 25 Stunden Aufwand pro ECTS und gehen davon aus, dass die Studierenden während der 15 Wochen des Semesters 50h pro Woche fürs Studium aufwenden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn man im Master davon 20h für die Berufstätigkeit abzieht, das Semester aber auf die vollen 18 Wochen betrachtet, ergibt sich ein Wert von 18 Stunden pro ECTS. </t>
+  </si>
+  <si>
+    <t>Auf die konkrete LV berechnet, wären dann 10 ECTS 180 Stunden, davon sind 15*6 = 90 Stunden Anwesenheit (gerechnet mit vollen Stunden, statt 45 min), dann bleiben nochmals 90 Stunden pro Person für das "Selbststudium" bzw. Projektarbeiten außerhalb der LVs, dividiert durch die 18 Wochen sind das 5 Stunden pro Woche.</t>
+  </si>
+  <si>
+    <t>Ich hoffe, das hilft dir weiter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebe Grüße, Regine </t>
   </si>
 </sst>
 </file>
@@ -137,12 +155,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,9 +441,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -602,6 +623,41 @@
         <v>24</v>
       </c>
     </row>
+    <row r="26" spans="1:1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
